--- a/docs/20171205_lib2_ind/20171212.growth.xlsx
+++ b/docs/20171205_lib2_ind/20171212.growth.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,6 +161,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +171,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -440,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -902,6 +906,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
+      <c r="G25">
+        <f>140/15</f>
+        <v>9.3333333333333339</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>25</v>
       </c>
@@ -964,33 +972,81 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3">
+        <f>B15</f>
+        <v>0.09</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:E29" si="4">C15</f>
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30">
+        <v>245</v>
+      </c>
+      <c r="C30" s="3">
+        <f>10*B17</f>
+        <v>2.7300000000000004</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:E30" si="5">10*C17</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="5"/>
+        <v>2.71</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31" s="7">
+        <f>10*$G$25*B19</f>
+        <v>21.466666666666669</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" ref="D31:E31" si="6">10*$G$25*C19</f>
+        <v>16.893333333333334</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="6"/>
+        <v>17.173333333333336</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32">
+        <v>345</v>
+      </c>
+      <c r="C32" s="3">
+        <f>10*$G$25*6*B20</f>
+        <v>124.32000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:E32" si="7">10*$G$25*6*C20</f>
+        <v>103.03999999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="7"/>
+        <v>89.600000000000009</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
